--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1183258.431314017</v>
+        <v>1239897.262007024</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797165</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6397543.461930221</v>
+        <v>6903572.763321141</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>373.9824131054179</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>124.879149157104</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -722,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -829,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H4" t="n">
-        <v>82.14201637551427</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -905,10 +907,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>118.9185844438374</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>253.3004145557235</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.97358346682226</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430572</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1120,7 +1122,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>378.2531772343686</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>29.74512849779573</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>13.99728392830507</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>308.1140575216985</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>172.3668577331189</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480023263</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1607,16 +1609,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>303.7900068265755</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>159.0864204534915</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.47678022721522</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002301</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,19 +2244,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>39.86022305741792</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023854</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2956,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>229.0094159404659</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>3.139541480022588</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>113.7218216744508</v>
       </c>
     </row>
     <row r="35">
@@ -3424,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950073</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>46.47710458853271</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225841</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>187.52341345552</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>145.4261460119187</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>284.8658530176185</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170442</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3980,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>417.4613179414719</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3989,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>117.9071773788868</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480022616</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.05677735225759</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1727.830882937792</v>
+        <v>1476.68384581818</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.070869699997</v>
+        <v>1442.581777042007</v>
       </c>
       <c r="D2" t="n">
-        <v>914.1610848744411</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E2" t="n">
-        <v>480.3863400327363</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F2" t="n">
-        <v>456.5593144823481</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K2" t="n">
-        <v>732.2102786755574</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L2" t="n">
-        <v>1344.116250983141</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M2" t="n">
-        <v>1344.116250983141</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N2" t="n">
-        <v>1344.116250983141</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.293283011491</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.293283011491</v>
+        <v>2327.186649932282</v>
       </c>
       <c r="W2" t="n">
-        <v>2173.478232462928</v>
+        <v>2326.37159938372</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.376173082643</v>
+        <v>1907.22913596303</v>
       </c>
       <c r="Y2" t="n">
-        <v>2154.1304534227</v>
+        <v>1498.943012262684</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>1406.536348780555</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>1311.446059927108</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>1217.325645254062</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>1073.994925158789</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>1073.994925158789</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>1073.994925158789</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="L3" t="n">
-        <v>1073.994925158789</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="M3" t="n">
-        <v>1751.460510101595</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="N3" t="n">
-        <v>1751.460510101595</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="O3" t="n">
-        <v>1751.460510101595</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>2100.972680272381</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>1915.649926005575</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>1760.782490244455</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>988.2124645223239</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C4" t="n">
-        <v>815.6507530055488</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D4" t="n">
-        <v>649.7727602070715</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E4" t="n">
-        <v>480.0147564578088</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F4" t="n">
-        <v>303.307702419565</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G4" t="n">
-        <v>137.7164274453926</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1407.450753927203</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1180.031083241311</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.651074442687</v>
+        <v>1236.873845124191</v>
       </c>
       <c r="C5" t="n">
-        <v>640.5086016261107</v>
+        <v>798.731372307614</v>
       </c>
       <c r="D5" t="n">
-        <v>204.5988168005552</v>
+        <v>362.8215874820585</v>
       </c>
       <c r="E5" t="n">
-        <v>174.8644759992544</v>
+        <v>333.0872466807577</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>309.2602211303695</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M5" t="n">
-        <v>732.2102786755574</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>1409.675863618363</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>2087.141448561168</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>2087.141448561168</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2737.234686637598</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.379232048631</v>
+        <v>2086.56159868973</v>
       </c>
       <c r="X5" t="n">
-        <v>1913.236768627942</v>
+        <v>2071.459539309445</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.950644927595</v>
+        <v>1663.173415609098</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K6" t="n">
-        <v>405.3666918594219</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L6" t="n">
-        <v>405.3666918594219</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>405.3666918594219</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>1082.832276802227</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1600.811677117221</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1407.450753927203</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1162.058999260615</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>1162.058999260615</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1223.469175800109</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1189.367107023936</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>1157.497726238785</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>1127.763385437484</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>745.6894690391318</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2916376623957</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1167.464966128475</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1167.464966128475</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>1167.464966128475</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>1844.930551071281</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.012383954615</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.012383954615</v>
+        <v>2640.01524209022</v>
       </c>
       <c r="W8" t="n">
-        <v>2073.156929365648</v>
+        <v>2639.200191541657</v>
       </c>
       <c r="X8" t="n">
-        <v>1654.014465944959</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y8" t="n">
-        <v>1245.728342244613</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="M9" t="n">
-        <v>54.74469373275195</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="N9" t="n">
-        <v>54.74469373275195</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="O9" t="n">
-        <v>732.2102786755574</v>
+        <v>1351.309055163234</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2649.986482340924</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2635.847811706272</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.414810959378</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>663.0441650514773</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>663.0441650514773</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>663.0441650514773</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>229.2694202097725</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>55.16148310561195</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>535.6838670561251</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1213.149451998931</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>1890.615036941736</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>2568.080621884541</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>2568.080621884541</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2568.080621884541</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>2517.167459510636</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>2257.945156827654</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>1895.32820676148</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>1490.472752172513</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>1071.330288751824</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>663.0441650514773</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>80.80836689320955</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>758.2739518360149</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>758.2739518360149</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>758.2739518360149</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>758.2739518360149</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>758.2739518360149</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>742.8207098557364</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>570.2589983389613</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>404.381005540484</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>234.6230017912213</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>57.91594775297747</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2649.986482340924</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2490.74511363892</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2244.865667217376</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>1966.432666470481</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1679.477158340911</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1407.450753927203</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1162.058999260615</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>934.6393285747235</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1326.243844149609</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>1326.243844149609</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>890.334059324053</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E14" t="n">
-        <v>456.5593144823481</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>456.5593144823481</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>204.2812984327036</v>
       </c>
       <c r="K14" t="n">
-        <v>489.9993811856698</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="L14" t="n">
-        <v>489.9993811856698</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1038.631590390881</v>
       </c>
       <c r="N14" t="n">
-        <v>1844.930551071281</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.930551071281</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2576.541332644172</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2171.685878055206</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1752.543414634516</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1752.543414634516</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2490.74511363892</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2244.865667217376</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2244.865667217376</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1957.910159087806</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1685.883754674098</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1440.49200000751</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1213.072329321618</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5592,16 +5594,16 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
         <v>1107.588885023173</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157614</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.929463568621</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2837.977298779172</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3184.458419759167</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C22" t="n">
-        <v>3011.896708242392</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D22" t="n">
-        <v>2971.633856669243</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E22" t="n">
-        <v>2801.87585291998</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F22" t="n">
-        <v>2801.87585291998</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G22" t="n">
-        <v>2636.284577945808</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V22" t="n">
-        <v>4121.114868244342</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W22" t="n">
-        <v>3849.088463830633</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X22" t="n">
-        <v>3603.696709164046</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y22" t="n">
-        <v>3376.277038478154</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5977,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>3011.896708242392</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>2846.018715443915</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>2676.260711694652</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>2499.553657656408</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2594.704009018975</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2316.271008272081</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,19 +6469,19 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>936.6111322289576</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2093.658967439508</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176684</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.042013538981</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1648.327823655249</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1648.327823655249</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>845.969722159226</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>673.4080106424509</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1782.626170644401</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1510.599766230692</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1265.208011564105</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1037.788340878213</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>475.2748675296863</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L32" t="n">
-        <v>475.2748675296863</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740237</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176684</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O32" t="n">
         <v>3738.23335274699</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580387</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>3575.440564248062</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>3402.878852731287</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>3237.00085993281</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>3067.242856183547</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>2890.535802145303</v>
       </c>
       <c r="G34" t="n">
-        <v>105.4320942910045</v>
+        <v>2724.944527171131</v>
       </c>
       <c r="H34" t="n">
-        <v>105.4320942910045</v>
+        <v>2585.042352861506</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244352</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>4932.382823542349</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>4399.547868991235</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>4127.521464577527</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>3882.129709910939</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6947,13 +6949,13 @@
         <v>2011.671098481817</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.042013538981</v>
@@ -6962,25 +6964,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3184.458419759167</v>
+        <v>3343.699788461171</v>
       </c>
       <c r="C37" t="n">
-        <v>3184.458419759167</v>
+        <v>3171.138076944395</v>
       </c>
       <c r="D37" t="n">
-        <v>3018.58042696069</v>
+        <v>3005.260084145918</v>
       </c>
       <c r="E37" t="n">
-        <v>2848.822423211427</v>
+        <v>2835.502080396655</v>
       </c>
       <c r="F37" t="n">
-        <v>2848.822423211427</v>
+        <v>2658.795026358412</v>
       </c>
       <c r="G37" t="n">
-        <v>2683.231148237255</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H37" t="n">
-        <v>2543.328973927629</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I37" t="n">
         <v>2496.382403636182</v>
@@ -7120,25 +7122,25 @@
         <v>5091.624192244353</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>4845.744745822809</v>
       </c>
       <c r="U37" t="n">
-        <v>4408.070376373911</v>
+        <v>4567.311745075915</v>
       </c>
       <c r="V37" t="n">
-        <v>4121.114868244342</v>
+        <v>4280.356236946345</v>
       </c>
       <c r="W37" t="n">
-        <v>3849.088463830633</v>
+        <v>4008.329832532637</v>
       </c>
       <c r="X37" t="n">
-        <v>3603.696709164046</v>
+        <v>3762.938077866049</v>
       </c>
       <c r="Y37" t="n">
-        <v>3376.277038478154</v>
+        <v>3535.518407180158</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4986.778077699538</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3365.117609755799</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C40" t="n">
-        <v>3192.555898239023</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D40" t="n">
-        <v>3026.677905440546</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E40" t="n">
-        <v>2856.919901691283</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F40" t="n">
-        <v>2680.21284765304</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G40" t="n">
-        <v>2514.621572678867</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I40" t="n">
         <v>2496.382403636182</v>
@@ -7357,25 +7359,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.747653827265</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X40" t="n">
-        <v>3784.355899160677</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y40" t="n">
-        <v>3556.936228474786</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1763.969527593325</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1325.827054776748</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>889.9172699511929</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>456.1425251094881</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>456.1425251094881</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>2520.422913940501</v>
       </c>
       <c r="N41" t="n">
-        <v>2087.141448561168</v>
+        <v>3646.153897376947</v>
       </c>
       <c r="O41" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="P41" t="n">
-        <v>2737.234686637598</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.012383954615</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>2478.012383954615</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>2478.012383954615</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.012383954615</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2190.269098078233</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>80.80836689320955</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K42" t="n">
-        <v>80.80836689320955</v>
+        <v>1099.061944355443</v>
       </c>
       <c r="L42" t="n">
-        <v>245.8805072316101</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>923.3460921744155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1600.811677117221</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1600.811677117221</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1600.811677117221</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>830.0689141524103</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>657.5072026356353</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>491.629209837158</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>321.8712060878952</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>145.1641520496514</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5750767347985</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>120.5750767347985</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2577.993317935594</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T43" t="n">
-        <v>2332.11387151405</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U43" t="n">
-        <v>2053.680870767155</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V43" t="n">
-        <v>1766.725362637585</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1494.698958223877</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X43" t="n">
-        <v>1249.307203557289</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>1021.887532871398</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2191.836957184118</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>1753.694484367541</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D44" t="n">
-        <v>1317.784699541985</v>
+        <v>1244.542428308135</v>
       </c>
       <c r="E44" t="n">
-        <v>884.0099547002803</v>
+        <v>810.7676834664296</v>
       </c>
       <c r="F44" t="n">
-        <v>456.1425251094881</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>424.1063803693477</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1258.456672327526</v>
       </c>
       <c r="L44" t="n">
-        <v>732.2102786755574</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>1409.675863618363</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>2087.141448561168</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>2737.234686637598</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>2737.234686637598</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>2737.234686637598</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>2618.136527669025</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.6510928577823</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>636.0893813410072</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>470.2113885425299</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>300.4533847932672</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>123.7463307550234</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5750767347985</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.81686534297</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2556.575496640966</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2310.696050219422</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2032.263049472527</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>1745.307541342957</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.281136929249</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1227.889382262661</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000.469711576769</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278669</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593996</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>485.7971447710838</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>523.2115154696905</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8544,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>331.1742018278667</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>46.14594532369222</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>304.8472592415459</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>111.6274738523737</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>178.4356412673392</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9240,10 +9242,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9401,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>-4.63134280015893e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,22 +10117,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>671.1057765021978</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160674</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10604,7 +10606,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>329.9981998526096</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>166.7395356953541</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>125.6469905667124</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>251.2218975617654</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444073</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>125.6469905667122</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>199.9043601120203</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>111.423652304582</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>124.3589898130746</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.7958207444067</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>55.07653710780795</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>111.423652304582</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.146865729423354</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>41.2962451445387</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142708</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>81.78272691405141</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,19 +25684,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>111.2039336442346</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>119.3374094457246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>229.4233680290246</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>14.08936903582804</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>286.2960850844563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>607279.5973319542</v>
+        <v>607014.9458932186</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>607279.5973319542</v>
+        <v>607014.9458932186</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>607279.5973319542</v>
+        <v>607014.9458932186</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>395234.3640085031</v>
+        <v>568683.7742443548</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>395234.364008503</v>
+        <v>568683.7742443548</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606421.0889105076</v>
+        <v>606421.0889105075</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606421.0889105076</v>
+        <v>606421.0889105077</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>606421.0889105075</v>
+        <v>606421.0889105076</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606421.0889105076</v>
+        <v>606421.0889105077</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>395234.364008503</v>
+        <v>568683.7742443549</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>395234.364008503</v>
+        <v>568683.7742443549</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287654</v>
+      </c>
+      <c r="C2" t="n">
         <v>348495.7579287656</v>
-      </c>
-      <c r="C2" t="n">
-        <v>348495.7579287655</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287655</v>
       </c>
       <c r="E2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425569</v>
       </c>
       <c r="F2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.456142557</v>
       </c>
       <c r="G2" t="n">
+        <v>342457.429689279</v>
+      </c>
+      <c r="H2" t="n">
         <v>342457.4296892791</v>
-      </c>
-      <c r="H2" t="n">
-        <v>342457.4296892789</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="J2" t="n">
+        <v>342457.429689279</v>
+      </c>
+      <c r="K2" t="n">
         <v>342457.4296892789</v>
       </c>
-      <c r="K2" t="n">
-        <v>342457.429689279</v>
-      </c>
       <c r="L2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="N2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="O2" t="n">
-        <v>223196.3018739991</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="P2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.456142557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>128068.9242817153</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18043.07181607991</v>
+        <v>25961.3108416593</v>
       </c>
       <c r="F4" t="n">
-        <v>18043.07181607992</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26450,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.07181607992</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="P4" t="n">
-        <v>18043.07181607992</v>
+        <v>25961.31084165931</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26497,7 +26499,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84134.30856235413</v>
+        <v>-80173.76544905704</v>
       </c>
       <c r="C6" t="n">
-        <v>145193.2664101587</v>
+        <v>143525.933134988</v>
       </c>
       <c r="D6" t="n">
-        <v>145193.2664101587</v>
+        <v>143525.9331349879</v>
       </c>
       <c r="E6" t="n">
-        <v>163547.2628210276</v>
+        <v>73254.11624682105</v>
       </c>
       <c r="F6" t="n">
-        <v>163547.2628210276</v>
+        <v>223919.869818569</v>
       </c>
       <c r="G6" t="n">
-        <v>74261.8245348424</v>
+        <v>207965.3031606759</v>
       </c>
       <c r="H6" t="n">
-        <v>237055.1123332838</v>
+        <v>237055.1123332839</v>
       </c>
       <c r="I6" t="n">
         <v>237055.1123332838</v>
       </c>
       <c r="J6" t="n">
-        <v>58009.85424563184</v>
+        <v>62403.76361557766</v>
       </c>
       <c r="K6" t="n">
         <v>237055.1123332838</v>
       </c>
       <c r="L6" t="n">
-        <v>237055.1123332838</v>
+        <v>237055.1123332839</v>
       </c>
       <c r="M6" t="n">
-        <v>237055.1123332838</v>
+        <v>111304.0239975931</v>
       </c>
       <c r="N6" t="n">
         <v>237055.1123332838</v>
       </c>
       <c r="O6" t="n">
-        <v>163547.2628210277</v>
+        <v>223919.869818569</v>
       </c>
       <c r="P6" t="n">
-        <v>163547.2628210276</v>
+        <v>223919.869818569</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778137</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>59.77863498299303</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>306.671537820196</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H4" t="n">
-        <v>56.36113619101495</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,10 +27627,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>304.6701708510469</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>144.0834385072452</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>161.926849064975</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.33557806051573</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>329.245652067716</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>229.4233680290242</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34699,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L2" t="n">
-        <v>618.0868407147311</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>331.1742018278669</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094345</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593996</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>485.7971447710838</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>523.2115154696905</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35264,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>684.3086716593995</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="P9" t="n">
-        <v>331.1742018278667</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>46.14594532369222</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>684.3086716593994</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>304.8472592415459</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>111.6274738523737</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>178.4356412673392</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35960,10 +35962,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>989.1559309009454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36121,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>69.04441372935742</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>946.7571087441338</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>-1.677385825885774e-14</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36835,25 +36837,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>671.1057765021978</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-6.786426882829224e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>376.7818457160674</v>
+        <v>459.59787496626</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37090,7 +37092,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,19 +37317,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>753.9218057523913</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R35" t="n">
-        <v>-6.786426882829224e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,19 +37554,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>127.53932913075</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>656.6598364408383</v>
+        <v>329.9981998526096</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>166.7395356953541</v>
+        <v>0.03656536949893052</v>
       </c>
       <c r="M42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1239897.262007024</v>
+        <v>1239291.174378127</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797165</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>124.879149157104</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>75.64195919506092</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>3.139541480022953</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>83.4266154587212</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>253.3004145557235</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>317.6456208057801</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T7" t="n">
-        <v>122.9742767430572</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>168.1589972036696</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1147,10 +1147,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>29.74512849779573</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1201,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>308.1140575216985</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1381,13 +1381,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170481</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1584,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>140.2850596529196</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>303.7900068265755</v>
+        <v>100.3665088933628</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.13954148002301</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1861,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480023854</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>229.0094159404659</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>113.7218216744508</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>160.7884964950073</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>81.49380289235361</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,10 +3720,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>187.52341345552</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.7876113208424</v>
       </c>
       <c r="U41" t="n">
-        <v>145.4261460119187</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>46.2253027104011</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>417.4613179414719</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>18.05677735225759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1476.68384581818</v>
+        <v>1674.602188492497</v>
       </c>
       <c r="C2" t="n">
-        <v>1442.581777042007</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.441222337862</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E2" t="n">
-        <v>882.6664774961569</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>454.7990479053647</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4363,19 +4363,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932282</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.186649932282</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>2326.37159938372</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>1907.22913596303</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y2" t="n">
-        <v>1498.943012262684</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885377</v>
+        <v>226.3304742981161</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862857</v>
+        <v>226.3304742981161</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.873845124191</v>
+        <v>577.3912258549058</v>
       </c>
       <c r="C5" t="n">
-        <v>798.731372307614</v>
+        <v>543.2891570787331</v>
       </c>
       <c r="D5" t="n">
-        <v>362.8215874820585</v>
+        <v>511.4197762935816</v>
       </c>
       <c r="E5" t="n">
-        <v>333.0872466807577</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>309.2602211303695</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4570,7 +4570,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
         <v>714.2412710704069</v>
@@ -4579,40 +4579,40 @@
         <v>714.2412710704069</v>
       </c>
       <c r="N5" t="n">
-        <v>801.8819313892766</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P5" t="n">
-        <v>2123.562040472833</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2087.376649238293</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2086.56159868973</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.459539309445</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1663.173415609098</v>
+        <v>599.6503922994095</v>
       </c>
     </row>
     <row r="6">
@@ -4646,19 +4646,19 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
         <v>1058.729261281022</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1043.799427915185</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>871.2377163984103</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>705.359723599933</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>535.6017198506702</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>358.8946658124264</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
         <v>53.40121652862856</v>
@@ -4752,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T7" t="n">
-        <v>2545.844385276825</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U7" t="n">
-        <v>2267.41138452993</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V7" t="n">
-        <v>1980.45587640036</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W7" t="n">
-        <v>1708.429471986652</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X7" t="n">
-        <v>1463.037717320064</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y7" t="n">
-        <v>1235.618046634173</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>714.2412710704069</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4840,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2640.01524209022</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2639.200191541657</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>2624.098132161372</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>2649.897996842637</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>1032.884738113077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1032.884738113077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1032.884738113077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1032.884738113077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1032.884738113077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055491</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1793.136679326502</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>1357.226894500947</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>923.452149659242</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F11" t="n">
-        <v>495.5847200684498</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>94.18688869171365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4384.785864999558</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4125.563562316574</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>3762.946612250401</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661434</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240745</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.662570540399</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,7 +5114,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5144,16 +5144,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2639367364659</v>
+        <v>918.5770357312381</v>
       </c>
       <c r="C13" t="n">
-        <v>630.7022252196908</v>
+        <v>746.015324214463</v>
       </c>
       <c r="D13" t="n">
-        <v>464.8242324212135</v>
+        <v>580.1373314159857</v>
       </c>
       <c r="E13" t="n">
-        <v>295.0662286719508</v>
+        <v>410.3793276667229</v>
       </c>
       <c r="F13" t="n">
-        <v>118.359174633707</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="G13" t="n">
-        <v>93.77009931885365</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T13" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U13" t="n">
-        <v>2026.87589335121</v>
+        <v>2142.188992345983</v>
       </c>
       <c r="V13" t="n">
-        <v>1739.920385221641</v>
+        <v>1855.233484216413</v>
       </c>
       <c r="W13" t="n">
-        <v>1467.893980807932</v>
+        <v>1583.207079802705</v>
       </c>
       <c r="X13" t="n">
-        <v>1222.502226141345</v>
+        <v>1337.815325136117</v>
       </c>
       <c r="Y13" t="n">
-        <v>995.0825554554531</v>
+        <v>1110.395654450225</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2104.363000055491</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.220527238914</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D14" t="n">
-        <v>1230.310742413359</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>204.2812984327036</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1038.631590390881</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1038.631590390881</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.631590390881</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.362573827329</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E16" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F16" t="n">
-        <v>96.94135333907892</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5755,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>605.8694973157614</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1680.929463568621</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2837.977298779172</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>2676.260711694652</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>2499.553657656408</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
         <v>5113.042013538981</v>
@@ -6484,7 +6484,7 @@
         <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>845.969722159226</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>673.4080106424509</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>507.5300178439736</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1782.626170644401</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1510.599766230692</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1265.208011564105</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1037.788340878213</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6688,37 +6688,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2627364873769</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3575.440564248062</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3402.878852731287</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3237.00085993281</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183547</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145303</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171131</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244352</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.382823542349</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4686.503377120805</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4399.547868991235</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4127.521464577527</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3882.129709910939</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,49 +6940,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4117.581748488571</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4945.891623321967</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3343.699788461171</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>3171.138076944395</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>3005.260084145918</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>2835.502080396655</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>2658.795026358412</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>5091.624192244353</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>4845.744745822809</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U37" t="n">
-        <v>4567.311745075915</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V37" t="n">
-        <v>4280.356236946345</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W37" t="n">
-        <v>4008.329832532637</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X37" t="n">
-        <v>3762.938077866049</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y37" t="n">
-        <v>3535.518407180158</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>4429.488197668539</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7405,10 +7405,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,37 +7417,37 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2520.422913940501</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>3646.153897376947</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231031</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942682</v>
+        <v>4395.976717054963</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.609868960946</v>
+        <v>4136.75441437198</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.992918894773</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="W41" t="n">
         <v>3774.137464305806</v>
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,16 +7484,16 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1099.061944355443</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
         <v>1099.098144071247</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2689.011887927025</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2443.132441505481</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2396.440216545479</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>2109.48470841591</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002201</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238914</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>1244.542428308135</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>810.7676834664296</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>382.9002538756374</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
         <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>424.1063803693477</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1258.456672327526</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3313.696305150691</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4142.006179984088</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.785864999558</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316574</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>962.5053054384693</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>789.9435939216943</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>624.065601123217</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>454.3075973739543</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>277.6005433357104</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>112.0092683615381</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2710.429709221653</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2464.550262800109</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2186.117262053214</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1899.161753923644</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1627.135349509936</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1381.743594843348</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="Y46" t="n">
-        <v>1154.323924157457</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,10 +8546,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8710,7 +8710,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>111.6274738523737</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,7 +10369,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10603,10 +10603,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,25 +11065,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>329.9981998526096</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23260,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>125.6469905667124</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>135.3636110865062</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>125.6469905667122</v>
+        <v>329.0704884999249</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.7958207444067</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>55.07653710780795</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.423652304582</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>3.146865729423354</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>143.6516710866792</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>81.78272691405141</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>11.0789435348494</v>
       </c>
       <c r="U41" t="n">
-        <v>111.2039336442346</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>229.4233680290246</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>14.08936903582804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>72.02778736463989</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568683.7742443548</v>
+        <v>568683.774244355</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568683.7742443548</v>
+        <v>568683.774244355</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>606421.0889105075</v>
+        <v>606421.0889105076</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606421.0889105077</v>
+        <v>606421.0889105076</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>606421.0889105077</v>
+        <v>606421.0889105076</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568683.7742443549</v>
+        <v>568683.774244355</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568683.7742443549</v>
+        <v>568683.7742443552</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348495.7579287655</v>
+      </c>
+      <c r="C2" t="n">
         <v>348495.7579287654</v>
-      </c>
-      <c r="C2" t="n">
-        <v>348495.7579287656</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287655</v>
       </c>
       <c r="E2" t="n">
-        <v>321146.4561425569</v>
+        <v>321146.456142557</v>
       </c>
       <c r="F2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="G2" t="n">
+        <v>342457.4296892791</v>
+      </c>
+      <c r="H2" t="n">
         <v>342457.429689279</v>
-      </c>
-      <c r="H2" t="n">
-        <v>342457.4296892791</v>
       </c>
       <c r="I2" t="n">
         <v>342457.429689279</v>
@@ -26340,13 +26340,13 @@
         <v>342457.429689279</v>
       </c>
       <c r="K2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="L2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
         <v>342457.429689279</v>
@@ -26355,7 +26355,7 @@
         <v>321146.4561425571</v>
       </c>
       <c r="P2" t="n">
-        <v>321146.456142557</v>
+        <v>321146.4561425571</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25961.3108416593</v>
+        <v>25961.31084165931</v>
       </c>
       <c r="F4" t="n">
         <v>25961.31084165931</v>
@@ -26450,10 +26450,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
         <v>25961.31084165931</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26499,7 +26499,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-80173.76544905704</v>
+        <v>-80173.76544905694</v>
       </c>
       <c r="C6" t="n">
-        <v>143525.933134988</v>
+        <v>143525.9331349878</v>
       </c>
       <c r="D6" t="n">
         <v>143525.9331349879</v>
       </c>
       <c r="E6" t="n">
-        <v>73254.11624682105</v>
+        <v>73148.92662456629</v>
       </c>
       <c r="F6" t="n">
-        <v>223919.869818569</v>
+        <v>223814.6801963144</v>
       </c>
       <c r="G6" t="n">
-        <v>207965.3031606759</v>
+        <v>207942.0788212935</v>
       </c>
       <c r="H6" t="n">
-        <v>237055.1123332839</v>
+        <v>237031.8879939012</v>
       </c>
       <c r="I6" t="n">
-        <v>237055.1123332838</v>
+        <v>237031.8879939012</v>
       </c>
       <c r="J6" t="n">
-        <v>62403.76361557766</v>
+        <v>62380.53927619504</v>
       </c>
       <c r="K6" t="n">
-        <v>237055.1123332838</v>
+        <v>237031.8879939012</v>
       </c>
       <c r="L6" t="n">
-        <v>237055.1123332839</v>
+        <v>237031.8879939012</v>
       </c>
       <c r="M6" t="n">
-        <v>111304.0239975931</v>
+        <v>111280.7996582104</v>
       </c>
       <c r="N6" t="n">
-        <v>237055.1123332838</v>
+        <v>237031.8879939012</v>
       </c>
       <c r="O6" t="n">
-        <v>223919.869818569</v>
+        <v>223814.6801963144</v>
       </c>
       <c r="P6" t="n">
-        <v>223919.869818569</v>
+        <v>223814.6801963144</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778137</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>306.671537820196</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>339.3090795914215</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7958207444076</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>55.07653710780802</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>144.0834385072452</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>86.55764165756301</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -27824,10 +27824,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T7" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>253.8775775763891</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>329.245652067716</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,10 +35266,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>321.6407242930886</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,13 +35415,13 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35430,7 +35430,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>111.6274738523737</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -36123,25 +36123,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>69.04441372935742</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>946.7571087441338</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,7 +36691,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,16 +36843,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>459.59787496626</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37089,7 +37089,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>168.8387779969844</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>661.3192390158824</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>329.9981998526096</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
